--- a/src/main/resources/file/final_updated.xlsx
+++ b/src/main/resources/file/final_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sport_pject\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22640EF-963B-49E4-9A9C-BBB65005C1A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7B4AF1-4C91-4F1A-881E-83DFA3E2DE22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Sportsmen1</t>
+    <t>test 1</t>
   </si>
   <si>
-    <t>0</t>
+    <t>test 98</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,9 +498,7 @@
       <c r="B1" t="s" s="12">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>1</v>
-      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -517,7 +515,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" t="s" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="12"/>
     </row>
@@ -530,8 +528,10 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="1"/>
+      <c r="N2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="5"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
